--- a/Template-KnToolsExcelAjs.xlsx
+++ b/Template-KnToolsExcelAjs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\02.Kazu-Development\02.KnTools-VSCode-Java\KnToolsJp1Ajs\app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B03CA7-3721-4C17-BE97-A46F0D7F6980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29955516-DA47-4036-86BF-6BDC87F9499F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="2430" windowWidth="31910" windowHeight="17590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>Index</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -370,59 +366,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
-      <name val="Yu Gothic UI"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <u/>
       <sz val="14"/>
-      <name val="Yu Gothic UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Yu Gothic UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Yu Gothic UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Yu Gothic UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Yu Gothic UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Yu Gothic UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Yu Gothic UI"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -431,10 +405,31 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Yu Gothic"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -548,24 +543,24 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -849,110 +844,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" style="6" customWidth="1"/>
-    <col min="6" max="6" width="30.08203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="6"/>
+    <col min="1" max="1" width="8.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="33.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="F4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="21.5">
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="C7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21.5">
-      <c r="B6" s="7">
-        <v>2</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21.5">
-      <c r="B7" s="7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="14" t="s">
+    <row r="9" spans="1:6">
+      <c r="B9" s="8">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="8">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21.5">
-      <c r="B8" s="7">
-        <v>4</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="21.5">
-      <c r="B9" s="7">
-        <v>5</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="21.5">
-      <c r="B10" s="7">
-        <v>6</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="D10" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -976,12 +968,12 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.1640625" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="12.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="12.1640625" style="3"/>
+    <col min="1" max="16384" width="12.1640625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="12" customFormat="1">
@@ -990,54 +982,54 @@
         <v>Unit</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="B3" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1055,12 +1047,12 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.58203125" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="13.58203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="13.58203125" style="3"/>
+    <col min="1" max="16384" width="13.58203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="12" customFormat="1">
@@ -1069,42 +1061,42 @@
         <v>Net</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1122,12 +1114,12 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.9140625" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="15.9140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="15.9140625" style="3"/>
+    <col min="1" max="16384" width="15.9140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="12" customFormat="1">
@@ -1136,39 +1128,39 @@
         <v>Job</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="B3" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1186,18 +1178,18 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.1640625" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="5.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="5.1640625" style="3"/>
+    <col min="1" max="1" width="4.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="5.1640625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1">
@@ -1206,24 +1198,24 @@
         <v>File</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1241,15 +1233,15 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="3" customWidth="1"/>
-    <col min="3" max="6" width="17.58203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="1" width="5.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="14" customWidth="1"/>
+    <col min="3" max="6" width="17.58203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1">
@@ -1258,38 +1250,38 @@
         <v>Next</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
+      <c r="C2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1306,15 +1298,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E344F394-E7C1-44E8-B039-E93C2BE9B3CA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" style="3"/>
-    <col min="3" max="3" width="96.75" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="2" width="8.6640625" style="14"/>
+    <col min="3" max="3" width="96.75" style="14" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="12" customFormat="1">
@@ -1323,15 +1315,15 @@
         <v>Ajsprint</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Template-KnToolsExcelAjs.xlsx
+++ b/Template-KnToolsExcelAjs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\02.Kazu-Development\02.KnTools-VSCode-Java\KnToolsJp1Ajs\app\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\02.Kazu-Development\02.KnTools-VSCode-Java\KnToolsJp1Ajs-java\app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29955516-DA47-4036-86BF-6BDC87F9499F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CC1352-2954-4613-9CAC-2A7242552859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="58065" yWindow="705" windowWidth="27405" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,50 +366,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Meiryo UI"/>
@@ -431,8 +387,31 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,19 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,26 +508,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -844,106 +809,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.4140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="33.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="3"/>
+    <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:6" ht="18">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="F4" s="7" t="s">
+      <c r="C4" s="9"/>
+      <c r="F4" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="8">
+      <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="8">
+      <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="8">
+      <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -967,68 +932,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248A623B-DE8D-4A76-8003-4047BFEDBAE6}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="12.1640625" style="14"/>
+    <col min="1" max="16384" width="12.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="12" customFormat="1">
-      <c r="A1" s="11" t="str">
+    <row r="1" spans="1:16" s="4" customFormat="1">
+      <c r="A1" s="3" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,31)</f>
         <v>Unit</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1046,56 +1009,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2B8391-FBA9-4CA3-89BA-2653E096B108}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.58203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="13.58203125" style="14"/>
+    <col min="1" max="16384" width="13.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1">
-      <c r="A1" s="11" t="str">
+    <row r="1" spans="1:12" s="4" customFormat="1">
+      <c r="A1" s="3" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,31)</f>
         <v>Net</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1113,53 +1074,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC59FBA3-5435-4B9B-B990-2CB968D876C4}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.9140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="15.9140625" style="14"/>
+    <col min="1" max="16384" width="15.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1">
-      <c r="A1" s="11" t="str">
+    <row r="1" spans="1:11" s="4" customFormat="1">
+      <c r="A1" s="3" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,31)</f>
         <v>Job</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1177,44 +1136,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C65747-D33D-4A95-A29B-90783441B70B}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="5.1640625" style="14"/>
+    <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="5.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1">
-      <c r="A1" s="11" t="str">
+    <row r="1" spans="1:6" s="4" customFormat="1">
+      <c r="A1" s="3" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,31)</f>
         <v>File</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1232,55 +1188,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60107372-B1F0-42D3-9EAC-5DE9C18ED781}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.83203125" style="14" customWidth="1"/>
-    <col min="3" max="6" width="17.58203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="14"/>
+    <col min="1" max="1" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="17.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1">
-      <c r="A1" s="11" t="str">
+    <row r="1" spans="1:6" s="4" customFormat="1">
+      <c r="A1" s="3" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,31)</f>
         <v>Next</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1298,31 +1252,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E344F394-E7C1-44E8-B039-E93C2BE9B3CA}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="8.6640625" style="14"/>
-    <col min="3" max="3" width="96.75" style="14" customWidth="1"/>
-    <col min="4" max="16384" width="8.6640625" style="14"/>
+    <col min="1" max="2" width="8.6640625" style="1"/>
+    <col min="3" max="3" width="96.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="12" customFormat="1">
-      <c r="A1" s="11" t="str">
+    <row r="1" spans="1:3" s="4" customFormat="1">
+      <c r="A1" s="3" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,31)</f>
         <v>Ajsprint</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
